--- a/database/usrinfo.xlsx
+++ b/database/usrinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jie_doc\pwd\end\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155F907B-3D9F-403B-944C-2E4A83D34BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7923323-DF8A-444D-A9C4-CE979D5C1675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2250" windowWidth="22995" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2850" windowWidth="22995" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -5566,11 +5566,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5578,6 +5580,7 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5585,11 +5588,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -6414,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -9088,7 +9093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
